--- a/scraping/wikipedia/wikipedia_usa_cities/data.xlsx
+++ b/scraping/wikipedia/wikipedia_usa_cities/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\wikipedia_usa_cities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A87208D-2F31-46FF-94A9-771128D08C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,21 +167,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +211,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,22 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +489,7 @@
         <v>19940274</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,7 +503,7 @@
         <v>12927614</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,7 +517,7 @@
         <v>9408576</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,7 +531,7 @@
         <v>8344032</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -569,7 +545,7 @@
         <v>7796182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,7 +559,7 @@
         <v>6457988</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -597,7 +573,7 @@
         <v>6436489</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -611,7 +587,7 @@
         <v>6411149</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -625,7 +601,7 @@
         <v>6330422</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -639,7 +615,7 @@
         <v>5186958</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -653,7 +629,7 @@
         <v>5025517</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -667,7 +643,7 @@
         <v>4744214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -681,7 +657,7 @@
         <v>4648486</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -695,7 +671,7 @@
         <v>4400578</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -709,7 +685,7 @@
         <v>4145494</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -723,7 +699,7 @@
         <v>3757952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -737,7 +713,7 @@
         <v>3424560</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -751,7 +727,7 @@
         <v>3298799</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -765,7 +741,7 @@
         <v>3052498</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
